--- a/LIST_COMPANY.xlsx
+++ b/LIST_COMPANY.xlsx
@@ -1064,11 +1064,11 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1394,11 +1394,11 @@
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="32.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="27.290714285714284" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="34.86214285714286" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -6560,7 +6560,7 @@
         <v>38</v>
       </c>
       <c r="AI48" s="2">
-        <v>6.632412490148378</v>
+        <v>5.632412490148378</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
@@ -6667,7 +6667,7 @@
         <v>38</v>
       </c>
       <c r="AI49" s="2">
-        <v>4.608389911562298</v>
+        <v>7.608389911562298</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
@@ -7309,7 +7309,7 @@
         <v>47</v>
       </c>
       <c r="AI55" s="2">
-        <v>3.170023938237197</v>
+        <v>4.170023938237197</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
@@ -7523,7 +7523,7 @@
         <v>47</v>
       </c>
       <c r="AI57" s="2">
-        <v>3.2285138424597193</v>
+        <v>2.228513842459719</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
@@ -14799,7 +14799,7 @@
         <v>38</v>
       </c>
       <c r="AI125" s="2">
-        <v>7.835215039409316</v>
+        <v>5.835215039409316</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
@@ -14906,7 +14906,7 @@
         <v>77</v>
       </c>
       <c r="AI126" s="2">
-        <v>6.475529959212353</v>
+        <v>5.475529959212353</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
@@ -15013,7 +15013,7 @@
         <v>47</v>
       </c>
       <c r="AI127" s="2">
-        <v>4.667479828351121</v>
+        <v>3.667479828351121</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
@@ -15120,7 +15120,7 @@
         <v>47</v>
       </c>
       <c r="AI128" s="2">
-        <v>2.2548330729190744</v>
+        <v>4.254833072919074</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
@@ -20470,7 +20470,7 @@
         <v>47</v>
       </c>
       <c r="AI178" s="2">
-        <v>4.568168314468473</v>
+        <v>6.568168314468473</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
@@ -20577,7 +20577,7 @@
         <v>47</v>
       </c>
       <c r="AI179" s="2">
-        <v>5.393132761837087</v>
+        <v>3.393132761837087</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">

--- a/LIST_COMPANY.xlsx
+++ b/LIST_COMPANY.xlsx
@@ -15441,7 +15441,7 @@
         <v>71</v>
       </c>
       <c r="AI131" s="2">
-        <v>3.8842907842032166</v>
+        <v>6.884290784203217</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
